--- a/Mk1 Data Sheet.xlsx
+++ b/Mk1 Data Sheet.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Desktop\Folders\PythonSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424E29C-0EA9-4553-A728-E4E07AAFE7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD3FDA-75EC-4456-B15D-A20D4FD6CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15675" yWindow="2700" windowWidth="12315" windowHeight="10035" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume Calculations" sheetId="1" r:id="rId1"/>
     <sheet name="Engines" sheetId="2" r:id="rId2"/>
-    <sheet name="Trajectory" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Trajectory" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Supposed More Accurate Equations for Rocket Motion</t>
   </si>
@@ -136,12 +138,6 @@
     <t>Burn Time:</t>
   </si>
   <si>
-    <t>Total Engine Mass:</t>
-  </si>
-  <si>
-    <t>Total Mass Prop:</t>
-  </si>
-  <si>
     <t>Max Lift Weight/u:</t>
   </si>
   <si>
@@ -239,17 +235,39 @@
   </si>
   <si>
     <t xml:space="preserve">Mass = </t>
+  </si>
+  <si>
+    <t>ESTES F15-4</t>
+  </si>
+  <si>
+    <t>Dry Mass/u</t>
+  </si>
+  <si>
+    <t>Wet Mass/u</t>
+  </si>
+  <si>
+    <t>Total Mass:</t>
+  </si>
+  <si>
+    <t>Total Prop Mass</t>
+  </si>
+  <si>
+    <t>Dry Mass:</t>
+  </si>
+  <si>
+    <t>Total Mass/u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -467,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -494,9 +512,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -528,9 +543,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -557,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -590,6 +599,29 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,6 +646,9 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,9 +667,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,7 +676,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,20 +693,2458 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>206.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>222.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>254.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>286.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>302.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>333.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>365.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>381.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>397.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>413.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>429.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>445.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>461.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>492.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>508.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>524.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>540.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>556.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>572.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>588.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>604.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>620.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>651.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>667.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>683.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>699.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>715.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>731.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>747.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>753.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>745.79</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>738.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>730.91</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>723.61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>716.41</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>709.31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>702.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>695.39</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>688.57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>681.85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>675.23</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>668.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>662.27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>655.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>649.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>643.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>637.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>631.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>625.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>619.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>614.27</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>608.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>603.23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>597.85</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>592.57000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>587.39</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>582.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>577.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>572.41</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>567.61</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>562.91</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>558.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>553.79</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>549.37</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>545.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>540.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>536.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>532.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>528.73</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>524.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>521.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>513.95000000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>510.49</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>507.13</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>503.87</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>500.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>497.63</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>494.65</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>491.77</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>488.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-114F-45A1-A360-D0DD5FA78C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="484675263"/>
+        <c:axId val="484675679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="484675263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484675679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="484675679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484675263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.736</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.6379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.074000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.948</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.627000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.622999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.819000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.337999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C081-4249-8AC6-6BA93650C1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1210654096"/>
+        <c:axId val="1210654512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1210654096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1210654512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1210654512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1210654096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>524605</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>229565</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>405542</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -698,8 +3167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="0"/>
-          <a:ext cx="5229955" cy="6916115"/>
+          <a:off x="9605962" y="4786312"/>
+          <a:ext cx="5229955" cy="6897065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,16 +3179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109512</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217394</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>148323</xdr:rowOff>
+      <xdr:rowOff>213521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,14 +3211,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9534525" y="219075"/>
-          <a:ext cx="5010150" cy="3996423"/>
+          <a:off x="9547921" y="261860"/>
+          <a:ext cx="4956973" cy="4073388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>148148</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59178DB9-275E-DDA3-6BBC-5CB855475B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14772409" y="259773"/>
+          <a:ext cx="5724603" cy="4069773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288216</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46742C56-C0E1-0905-A4B6-37E582BE05D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15378546" y="5039590"/>
+          <a:ext cx="5258534" cy="6792273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCA0374-291E-D624-B402-E8D45309009B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102C5587-5304-0568-3CE7-AB37F623433A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1045,413 +3684,413 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="C3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>12</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f>B4/39.37</f>
         <v>0.30480060960121924</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>24</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>B5/39.37</f>
         <v>0.60960121920243848</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="A7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="47">
         <f>PI()*(C4/2)^2*(C5/3)</f>
         <v>1.4826755164729137E-2</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="C7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <f>C12*39.37</f>
         <v>5.7716419999999999</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <v>0.14660000000000001</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="33">
+      <c r="A13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="31">
         <f>C13*39.37</f>
         <v>2.2051136999999996</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="32">
         <v>5.6009999999999997E-2</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="A14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="31">
         <f>C14*39.37</f>
         <v>11.528717099999998</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="32">
         <v>0.29282999999999998</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="36">
+      <c r="A16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="48">
         <f>(1/3)*PI()*C14*(C12^2+C13^2+(C12*C13))</f>
         <v>1.0070336348177904E-2</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="18"/>
+      <c r="C16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="39">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="39">
+        <v>0.114</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="46">
+        <f>PI()*(B21/2)^2*B22</f>
+        <v>7.5299263517566965E-5</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="42">
-        <f>Engines!C5</f>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="42">
-        <f>Engines!C6*0.75</f>
-        <v>5.2500000000000005E-2</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="42">
-        <f>PI()*(B21/2)^2*B22</f>
-        <v>1.1364956861287138E-4</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="36">
+      <c r="B25" s="66"/>
+      <c r="C25" s="49">
         <f>B24*30</f>
-        <v>3.4094870583861415E-3</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>52</v>
+        <v>2.258977905527009E-3</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="61"/>
+      <c r="A27" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="68"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="19"/>
+      <c r="D27" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="3"/>
       <c r="D28" s="62">
         <v>0.6</v>
       </c>
       <c r="E28" s="62"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12">
         <f>B7-B16-C25</f>
-        <v>1.3469317581650915E-3</v>
+        <v>2.497440911024224E-3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="44">
+        <v>50</v>
+      </c>
+      <c r="D29" s="41">
         <f>B29*(D28+0.15)</f>
-        <v>1.0101988186238186E-3</v>
+        <v>1.873080683268168E-3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="B31" s="26"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="5">
         <v>1100</v>
@@ -1462,27 +4101,27 @@
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="44">
+        <v>65</v>
+      </c>
+      <c r="B33" s="41">
         <f>D29*F31</f>
-        <v>1.1112187004862004</v>
+        <v>2.060388751594985</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="1"/>
     </row>
   </sheetData>
@@ -1508,28 +4147,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="7" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
       <c r="E1" s="1"/>
@@ -1540,10 +4181,10 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
@@ -1551,8 +4192,10 @@
         <v>30</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="69"/>
       <c r="H2" s="1"/>
       <c r="I2" s="11"/>
       <c r="J2" s="1"/>
@@ -1565,9 +4208,11 @@
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="11"/>
       <c r="J3" s="1"/>
     </row>
@@ -1581,9 +4226,12 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="1"/>
     </row>
@@ -1591,19 +4239,23 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="13">
         <f>7*0.75</f>
         <v>5.25</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="13">
         <f>B5/100</f>
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="1"/>
     </row>
@@ -1611,30 +4263,33 @@
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="13">
         <f>B6/100</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>0.114</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="11"/>
       <c r="J7" s="1"/>
     </row>
@@ -1642,17 +4297,23 @@
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="13">
         <v>32.9</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13">
+        <v>25.26</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
     </row>
@@ -1660,18 +4321,25 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="13">
         <f>B8*D2</f>
         <v>987</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13">
+        <f>G8*$D$2</f>
+        <v>757.80000000000007</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="1"/>
     </row>
@@ -1679,265 +4347,361 @@
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="13">
         <v>1.6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="50" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3.45</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4">
-        <f>0.0457*D2</f>
-        <v>1.371</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4">
-        <f>0.0242*D2</f>
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="13">
+        <f>B12+B11</f>
+        <v>6.989999999999999E-2</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="13">
+        <f>G12+G11</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="52">
+        <f>(B11+B12)*$D$2</f>
+        <v>2.0969999999999995</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="52">
+        <f>(G11+G12)*$D$2</f>
+        <v>3.06</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B14*D2</f>
-        <v>8.4899999999999984</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B12*$D$2</f>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="8">
+        <f>G12*$D$2</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="13">
+        <f>B11-B12+B20</f>
+        <v>2.0818887515949851</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="13">
+        <f>G11-G12+G20</f>
+        <v>2.0423887515949852</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="14">
-        <f>'Volume Calculations'!B33</f>
-        <v>1.1112187004862004</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="14">
-        <f>B11-B12+B17</f>
-        <v>1.7562187004862004</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13">
+        <f>B17*D2</f>
+        <v>8.4899999999999984</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13">
+        <f>G17*D2</f>
+        <v>17.849999999999998</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="11"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="14"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="13">
+        <f>'Volume Calculations'!B33</f>
+        <v>2.060388751594985</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="14"/>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="13">
+        <f>'Volume Calculations'!B33</f>
+        <v>2.060388751594985</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="14">
-        <f>B19+B17+B11</f>
-        <v>2.4822187004862002</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="C21" s="50"/>
       <c r="D21" s="11"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="H21" s="15"/>
       <c r="I21" s="11"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="14">
-        <f>B9/(B17*9.8+B11*9.8+B19*9.8)</f>
-        <v>40.574299796612785</v>
-      </c>
-      <c r="C23" s="13"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="11"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="11"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13">
+        <f>B14+B20+B22</f>
+        <v>4.1573887515949846</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="13">
+        <f>G22+G20+G14</f>
+        <v>5.1203887515949855</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>15</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5">
-        <v>20</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="11"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
       <c r="I25" s="11"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="13">
+        <f>B9/(B20*9.8+B11*9.8+B22*9.8)</f>
+        <v>47.820532557335341</v>
+      </c>
+      <c r="C26" s="50"/>
       <c r="D26" s="11"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1947,16 +4711,9 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="14">
-        <f>B25/(9.81*B12/D2)</f>
-        <v>84.245288582236043</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1966,58 +4723,66 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="13">
+        <v>20</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="13">
+        <v>49.61</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="4">
-        <f>(9.81)*(B27)*LN((B21)/(B21-B12))</f>
-        <v>285.94195484826514</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="11"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
       <c r="I29" s="11"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="13">
+        <f>B28/(9.81*B12)</f>
+        <v>84.245288582236043</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>10</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="13">
+        <f>G28/(9.81*G12)</f>
+        <v>84.284743459055377</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="5">
-        <v>343</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2027,9 +4792,16 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="13">
+        <f>(9.81)*(B30)*LN((B24)/(B24-B12))</f>
+        <v>4.824768068428603</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>19</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2039,14 +4811,9 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="4">
-        <f>B29/B31</f>
-        <v>0.83365001413488382</v>
-      </c>
-      <c r="C33" s="13"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="11"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2055,10 +4822,37 @@
       <c r="I33" s="11"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="13">
+        <v>343</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="50"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="13">
+        <f>B32/B34</f>
+        <v>1.4066379208246656E-2</v>
+      </c>
+      <c r="C36" s="50"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2066,6 +4860,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE9FF7-03F9-4642-B82A-19E788EFFFF2}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>206.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>222.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>270.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>302.10000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>333.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>349.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>365.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>381.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>413.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>429.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>445.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>461.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>492.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>508.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>524.70000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>540.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>556.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>572.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>588.29999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>604.20000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>620.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>651.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>667.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>683.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>699.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>715.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>731.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>747.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>753.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>745.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>738.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>730.91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>723.61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>716.41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>709.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>702.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>695.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>688.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>681.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>675.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>668.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>662.27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>655.93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>649.69000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>643.54999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>631.54999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>625.69000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>619.92999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>614.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>608.70000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>603.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>597.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>592.57000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>587.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>582.29999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>577.30999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>572.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>567.61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>562.91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>558.29999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>553.79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>549.37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>545.04999999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>540.83000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>536.70000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>532.66999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>528.73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>524.89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>521.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>517.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>513.95000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>510.49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>507.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>503.87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>500.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>497.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>494.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>491.77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>488.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE8EF21-8666-430D-9780-CE8A7F39FB76}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B1">
+        <v>7.6379999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="B2">
+        <v>12.253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="B3">
+        <v>16.390999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="B4">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="B5">
+        <v>22.756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B6">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.52</v>
+      </c>
+      <c r="B7">
+        <v>23.074000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="B8">
+        <v>20.844999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="B9">
+        <v>19.093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="B10">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="B11">
+        <v>16.225000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="B12">
+        <v>15.427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.423</v>
+      </c>
+      <c r="B13">
+        <v>14.948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.452</v>
+      </c>
+      <c r="B14">
+        <v>14.627000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="B15">
+        <v>15.741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.736</v>
+      </c>
+      <c r="B16">
+        <v>14.785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="B17">
+        <v>14.622999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.21</v>
+      </c>
+      <c r="B18">
+        <v>14.141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.4940000000000002</v>
+      </c>
+      <c r="B19">
+        <v>13.819000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="B20">
+        <v>13.337999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.12</v>
+      </c>
+      <c r="B21">
+        <v>13.334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.3820000000000001</v>
+      </c>
+      <c r="B22">
+        <v>13.013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="B23">
+        <v>9.3520000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="B24">
+        <v>4.8949999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3.45</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2227,14 +6053,14 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="64"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,8 +6080,8 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <f>Engines!B17+Engines!B19+Engines!B11</f>
-        <v>2.4822187004862002</v>
+        <f>Engines!B20+Engines!B22+Engines!B11</f>
+        <v>2.1060887515949851</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -2286,7 +6112,7 @@
       </c>
       <c r="B13" s="4">
         <f>SQRT((B9-(B11*9.81))/B7)</f>
-        <v>171.22495123854898</v>
+        <v>171.55278996359638</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
@@ -2303,7 +6129,7 @@
       </c>
       <c r="B14" s="4">
         <f>(2*B7*B13)/B11</f>
-        <v>4.5299255184660661</v>
+        <v>5.3491548480120974</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
@@ -2332,7 +6158,7 @@
       </c>
       <c r="B16" s="4">
         <f>B13*(1-EXP(-B14*B8))/(1+EXP(-B14*B8))</f>
-        <v>170.98140948544895</v>
+        <v>171.48696798031321</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -2351,7 +6177,7 @@
       </c>
       <c r="B17" s="4">
         <f>(-B11/(2*B7))*LN((B9-(B11*9.81)-B7*B16^2)/(B9-B11*9.81))</f>
-        <v>221.61368471489988</v>
+        <v>230.03691216608831</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -2370,7 +6196,7 @@
       </c>
       <c r="B18" s="4">
         <f>(B11/(2*B7))*LN((B11*9.81+B7*B16^2)/(B11*9.81))</f>
-        <v>139.82990765685773</v>
+        <v>123.97637654657298</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
@@ -2389,7 +6215,7 @@
       </c>
       <c r="B19" s="4">
         <f>B18+B17</f>
-        <v>361.44359237175763</v>
+        <v>354.01328871266128</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>

--- a/Mk1 Data Sheet.xlsx
+++ b/Mk1 Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\python\PythonSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97113A-D6FC-4806-B560-794AFFA074A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F37A04-4DA3-44B9-92A3-31D3DEAAD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="16080" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="660" windowWidth="16080" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume Calculations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
   <si>
     <t>Supposed More Accurate Equations for Rocket Motion</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Mass Struct:</t>
-  </si>
-  <si>
-    <t>Payload Mass:</t>
   </si>
   <si>
     <t>Total Initial Mass</t>
@@ -605,6 +602,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,33 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,23 +1072,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>21</v>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="16">
         <v>12</v>
@@ -1128,35 +1125,35 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="38">
         <f>PI()*(C4/2)^2*(C5/3)</f>
         <v>1.4826755164729137E-2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>21</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="25">
         <f>C12*39.37</f>
@@ -1176,7 +1173,7 @@
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="25">
         <f>C13*39.37</f>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="25">
         <f>C14*39.37</f>
@@ -1205,30 +1202,30 @@
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="39">
         <f>(1/3)*PI()*C14*(C12^2+C13^2+(C12*C13))</f>
         <v>1.0070336348177904E-2</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="51"/>
+      <c r="A19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="46"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
@@ -1242,7 +1239,7 @@
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="33">
         <v>2.9000000000000001E-2</v>
@@ -1261,82 +1258,82 @@
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="54"/>
+      <c r="A23" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="48"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="37">
         <f>PI()*(B21/2)^2*B22</f>
         <v>7.5299263517566965E-5</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="56"/>
+      <c r="A25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="50"/>
       <c r="C25" s="40">
         <f>B24*30</f>
         <v>2.258977905527009E-3</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="D27" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="D27" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="52">
+      <c r="D28" s="44">
         <v>0.6</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="8">
         <f>B7-B16-C25</f>
         <v>2.497440911024224E-3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="35">
         <f>B29*(D28+0.15)</f>
         <v>1.873080683268168E-3</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
         <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
       </c>
       <c r="F31" s="4">
         <v>1100</v>
@@ -1348,7 +1345,7 @@
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="35">
         <f>D29*F31</f>
@@ -1360,17 +1357,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1384,7 +1381,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,13 +1398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="59"/>
@@ -1417,12 +1414,12 @@
       <c r="D2" s="8">
         <v>30</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>66</v>
+      <c r="F2" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="G2" s="59"/>
-      <c r="J2" s="57" t="s">
-        <v>73</v>
+      <c r="J2" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="K2" s="59"/>
     </row>
@@ -1616,7 +1613,7 @@
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="9">
         <v>4.5699999999999998E-2</v>
@@ -1625,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9">
         <v>4.2000000000000003E-2</v>
@@ -1634,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="9">
         <v>8.6999999999999994E-2</v>
@@ -1645,7 +1642,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="9">
         <v>2.4199999999999999E-2</v>
@@ -1654,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="9">
         <v>0.06</v>
@@ -1663,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="9">
         <v>0.1164</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9">
         <f>B12+B11</f>
@@ -1684,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="9">
         <f>G12+G11</f>
@@ -1694,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="9">
         <v>0.2034</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="43">
         <f>(B11+B12)*$D$2</f>
@@ -1715,7 +1712,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="43">
         <f>(G11+G12)*$D$2</f>
@@ -1725,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="43">
         <v>6.1020000000000003</v>
@@ -1736,7 +1733,7 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <f>B12*$D$2</f>
@@ -1746,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1">
         <f>G12*$D$2</f>
@@ -1756,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1">
         <v>3.492</v>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="9">
         <f>B11-B12+B20</f>
@@ -1777,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9">
         <f>G11-G12+G20</f>
@@ -1787,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="9">
         <v>2.0309887515949852</v>
@@ -1916,33 +1913,12 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="41"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="41"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
@@ -1954,7 +1930,7 @@
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9">
         <f>B14+B20+B22</f>
@@ -1964,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="9">
         <f>G22+G20+G14</f>
@@ -1974,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="9">
         <v>8.1623887515949853</v>
@@ -1989,7 +1965,7 @@
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="9">
         <f>B9/(B20*9.8+B11*9.8+B22*9.8)</f>
@@ -2003,31 +1979,31 @@
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="9">
         <v>20</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="9">
         <v>49.61</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" s="9">
         <v>211.2</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,7 +2012,7 @@
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="9">
         <f>B28/(9.81*B12)</f>
@@ -2046,14 +2022,14 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="9">
         <f>G28/(9.81*G12)</f>
         <v>84.284743459055377</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="9">
         <f>K28/(9.81*K12)</f>
@@ -2066,7 +2042,7 @@
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="9">
         <f>(9.81)*(B30)*LN((B24)/(B24-B12))</f>
@@ -2082,7 +2058,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="9">
         <v>343</v>
@@ -2097,7 +2073,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="9">
         <f>B32/B34</f>

--- a/Mk1 Data Sheet.xlsx
+++ b/Mk1 Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\python\PythonSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F37A04-4DA3-44B9-92A3-31D3DEAAD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75491A4-B41B-4B95-9C94-D27AB5A88991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="660" windowWidth="16080" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19230" yWindow="1920" windowWidth="16080" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume Calculations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="74">
   <si>
     <t>Supposed More Accurate Equations for Rocket Motion</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>AeroTech H13-P</t>
+  </si>
+  <si>
+    <t>ESTES E12-4</t>
   </si>
 </sst>
 </file>
@@ -602,15 +605,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,24 +648,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,17 +1075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,17 +1140,17 @@
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,18 +1217,18 @@
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
@@ -1258,10 +1261,10 @@
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
@@ -1279,10 +1282,10 @@
       <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="40">
         <f>B24*30</f>
         <v>2.258977905527009E-3</v>
@@ -1293,20 +1296,20 @@
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="D27" s="52" t="s">
+      <c r="B27" s="58"/>
+      <c r="D27" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="44">
+      <c r="D28" s="52">
         <v>0.6</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1357,17 +1360,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1378,10 +1381,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,14 +1400,14 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="59"/>
@@ -1414,16 +1417,20 @@
       <c r="D2" s="8">
         <v>30</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="57" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="59"/>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="57" t="s">
         <v>72</v>
       </c>
       <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1437,8 +1444,13 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1457,8 +1469,14 @@
       <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1484,8 +1502,15 @@
       <c r="L5" s="9">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1510,16 +1535,25 @@
       <c r="L6" s="9">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1548,8 +1582,17 @@
       <c r="L8" s="41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1581,8 +1624,18 @@
       <c r="L9" s="41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="9">
+        <f>O8*$D$2</f>
+        <v>918</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1610,8 +1663,17 @@
       <c r="L10" s="41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1639,8 +1701,17 @@
       <c r="L11" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="9">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1668,8 +1739,17 @@
       <c r="L12" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="9">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1699,8 +1779,18 @@
       <c r="L13" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="9">
+        <f>O12+O11</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1730,8 +1820,18 @@
       <c r="L14" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="43">
+        <f>(O11+O12)*$D$2</f>
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1761,8 +1861,18 @@
       <c r="L15" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="1">
+        <f>O12*$D$2</f>
+        <v>1.8359999999999999</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1792,8 +1902,17 @@
       <c r="L16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="9">
+        <v>2.0234887515949849</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1821,8 +1940,17 @@
       <c r="L17" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1853,8 +1981,18 @@
       <c r="L18" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="9">
+        <f>O17*L2</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="41"/>
       <c r="F19" s="36"/>
@@ -1864,8 +2002,11 @@
       <c r="J19" s="36"/>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="36"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1897,8 +2038,18 @@
       <c r="L20" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="9">
+        <f>'Volume Calculations'!B33</f>
+        <v>2.060388751594985</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>2.06</v>
       </c>
@@ -1911,24 +2062,32 @@
         <v>2.06</v>
       </c>
       <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="41"/>
       <c r="G22" s="9"/>
       <c r="H22" s="41"/>
       <c r="K22" s="9"/>
       <c r="L22" s="41"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="9"/>
+      <c r="P22" s="41"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="41"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1958,12 +2117,22 @@
       <c r="L24" s="41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="9">
+        <f>O22+O20+O14</f>
+        <v>4.6253887515949845</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1973,11 +2142,11 @@
       </c>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2005,12 +2174,21 @@
       <c r="L28" s="41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="9">
+        <v>30</v>
+      </c>
+      <c r="P28" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2035,12 +2213,19 @@
         <f>K28/(9.81*K12)</f>
         <v>184.95749130384519</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="9">
+        <f>O28/(9.81*O12)</f>
+        <v>49.969019208090984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2082,11 +2267,12 @@
       <c r="C36" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Mk1 Data Sheet.xlsx
+++ b/Mk1 Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\python\PythonSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75491A4-B41B-4B95-9C94-D27AB5A88991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A25E23-B40B-494D-9F91-459BD8D8723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19230" yWindow="1920" windowWidth="16080" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="795" windowWidth="9540" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume Calculations" sheetId="1" r:id="rId1"/>
@@ -1059,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
